--- a/out/CE/FigA_8.xlsx
+++ b/out/CE/FigA_8.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EB1910-D926-433B-B74A-D6CAA4D7F2FC}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.86692999999999998</v>
+        <v>0.86700999999999995</v>
       </c>
       <c r="B1">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="C1">
+        <v>0.85885</v>
+      </c>
+      <c r="D1">
+        <v>0.86277999999999999</v>
+      </c>
+      <c r="E1">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="F1">
+        <v>0.87538000000000005</v>
+      </c>
+      <c r="G1">
+        <v>0.85251999999999994</v>
+      </c>
+      <c r="H1">
+        <v>0.84057999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.85401000000000005</v>
+      </c>
+      <c r="J1">
+        <v>0.86767000000000005</v>
+      </c>
+      <c r="K1">
+        <v>0.87612000000000001</v>
+      </c>
+      <c r="L1">
+        <v>0.86368</v>
+      </c>
+      <c r="M1">
+        <v>0.85575999999999997</v>
+      </c>
+      <c r="N1">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="O1">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="P1">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="Q1">
+        <v>0.87187000000000003</v>
+      </c>
+      <c r="R1">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="S1">
+        <v>0.86931000000000003</v>
+      </c>
+      <c r="T1">
+        <v>0.85507</v>
+      </c>
+      <c r="U1">
+        <v>0.85882999999999998</v>
+      </c>
+      <c r="V1">
+        <v>0.88439000000000001</v>
+      </c>
+      <c r="W1">
+        <v>0.87829000000000002</v>
+      </c>
+      <c r="X1">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="Y1">
+        <v>0.86133000000000004</v>
+      </c>
+      <c r="Z1">
+        <v>0.86534999999999995</v>
+      </c>
+      <c r="AA1">
+        <v>0.86628000000000005</v>
+      </c>
+      <c r="AB1">
+        <v>0.87275999999999998</v>
+      </c>
+      <c r="AC1">
+        <v>0.84392999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.84001999999999999</v>
+      </c>
+      <c r="AE1">
+        <v>0.84894999999999998</v>
+      </c>
+      <c r="AF1">
+        <v>0.86745000000000005</v>
+      </c>
+      <c r="AG1">
+        <v>0.83687999999999996</v>
+      </c>
+      <c r="AH1">
+        <v>0.85275999999999996</v>
+      </c>
+      <c r="AI1">
+        <v>0.86385000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="AK1">
+        <v>0.88541999999999998</v>
+      </c>
+      <c r="AL1">
+        <v>0.84497</v>
+      </c>
+      <c r="AM1">
+        <v>0.86456999999999995</v>
+      </c>
+      <c r="AN1">
+        <v>0.86765000000000003</v>
+      </c>
+      <c r="AO1">
+        <v>0.84899000000000002</v>
+      </c>
+      <c r="AP1">
+        <v>0.86907999999999996</v>
+      </c>
+      <c r="AQ1">
+        <v>0.85204000000000002</v>
+      </c>
+      <c r="AR1">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="AS1">
+        <v>0.87634999999999996</v>
+      </c>
+      <c r="AT1">
+        <v>0.85302999999999995</v>
+      </c>
+      <c r="AU1">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="AV1">
+        <v>0.86128000000000005</v>
+      </c>
+      <c r="AW1">
+        <v>0.87412999999999996</v>
+      </c>
+      <c r="AX1">
+        <v>0.87512999999999996</v>
+      </c>
+      <c r="AY1">
+        <v>0.86094999999999999</v>
+      </c>
+      <c r="AZ1">
+        <v>0.87897000000000003</v>
+      </c>
+      <c r="BA1">
+        <v>0.82096000000000002</v>
+      </c>
+      <c r="BB1">
+        <v>0.86326999999999998</v>
+      </c>
+      <c r="BC1">
+        <v>0.86773</v>
+      </c>
+      <c r="BD1">
+        <v>0.87927</v>
+      </c>
+      <c r="BE1">
+        <v>0.86767000000000005</v>
+      </c>
+      <c r="BF1">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="BG1">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="BH1">
+        <v>0.87544</v>
+      </c>
+      <c r="BI1">
+        <v>0.85807</v>
+      </c>
+      <c r="BJ1">
+        <v>0.83621999999999996</v>
+      </c>
+      <c r="BK1">
+        <v>0.86375000000000002</v>
+      </c>
+      <c r="BL1">
+        <v>0.84577999999999998</v>
+      </c>
+      <c r="BM1">
+        <v>0.85070999999999997</v>
+      </c>
+      <c r="BN1">
+        <v>0.85351999999999995</v>
+      </c>
+      <c r="BO1">
+        <v>0.86277999999999999</v>
+      </c>
+      <c r="BP1">
+        <v>0.85719000000000001</v>
+      </c>
+      <c r="BQ1">
+        <v>0.84513000000000005</v>
+      </c>
+      <c r="BR1">
+        <v>0.85116999999999998</v>
+      </c>
+      <c r="BS1">
+        <v>0.86482000000000003</v>
+      </c>
+      <c r="BT1">
+        <v>0.81035000000000001</v>
+      </c>
+      <c r="BU1">
+        <v>0.83481000000000005</v>
+      </c>
+      <c r="BV1">
+        <v>0.85797999999999996</v>
+      </c>
+      <c r="BW1">
+        <v>0.86365000000000003</v>
+      </c>
+      <c r="BX1">
+        <v>0.87866999999999995</v>
+      </c>
+      <c r="BY1">
+        <v>0.88446000000000002</v>
+      </c>
+      <c r="BZ1">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="CA1">
+        <v>0.87163000000000002</v>
+      </c>
+      <c r="CB1">
+        <v>0.85579000000000005</v>
+      </c>
+      <c r="CC1">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="CD1">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="CE1">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="CF1">
+        <v>0.85165999999999997</v>
+      </c>
+      <c r="CG1">
+        <v>0.88105</v>
+      </c>
+      <c r="CH1">
+        <v>0.88934999999999997</v>
+      </c>
+      <c r="CI1">
+        <v>0.85802</v>
+      </c>
+      <c r="CJ1">
+        <v>0.87424999999999997</v>
+      </c>
+      <c r="CK1">
+        <v>0.88148000000000004</v>
+      </c>
+      <c r="CL1">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="CM1">
+        <v>0.86972000000000005</v>
+      </c>
+      <c r="CN1">
+        <v>0.83042000000000005</v>
+      </c>
+      <c r="CO1">
+        <v>0.87534000000000001</v>
+      </c>
+      <c r="CP1">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="CQ1">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="CR1">
+        <v>0.84863</v>
+      </c>
+      <c r="CS1">
+        <v>0.84884000000000004</v>
+      </c>
+      <c r="CT1">
+        <v>0.84953000000000001</v>
+      </c>
+      <c r="CU1">
+        <v>0.84048999999999996</v>
+      </c>
+      <c r="CV1">
+        <v>0.86926000000000003</v>
+      </c>
+      <c r="CW1">
+        <v>0.86058009999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.85977999999999999</v>
+      </c>
+      <c r="B2">
+        <v>0.86670999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.87624000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.84689000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.87870999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.85807999999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.86736999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.84526999999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="K2">
+        <v>0.86475999999999997</v>
+      </c>
+      <c r="L2">
+        <v>0.87256</v>
+      </c>
+      <c r="M2">
+        <v>0.86245000000000005</v>
+      </c>
+      <c r="N2">
+        <v>0.87156</v>
+      </c>
+      <c r="O2">
+        <v>0.88592000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.85733999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.85665000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.87058999999999997</v>
+      </c>
+      <c r="S2">
+        <v>0.87541000000000002</v>
+      </c>
+      <c r="T2">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="U2">
+        <v>0.86023000000000005</v>
+      </c>
+      <c r="V2">
+        <v>0.86245000000000005</v>
+      </c>
+      <c r="W2">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.83616999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.85763</v>
+      </c>
+      <c r="AA2">
+        <v>0.87826000000000004</v>
+      </c>
+      <c r="AB2">
+        <v>0.83057000000000003</v>
+      </c>
+      <c r="AC2">
+        <v>0.86944999999999995</v>
+      </c>
+      <c r="AD2">
+        <v>0.84140999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>0.84880999999999995</v>
+      </c>
+      <c r="AF2">
+        <v>0.86523000000000005</v>
+      </c>
+      <c r="AG2">
+        <v>0.85875999999999997</v>
+      </c>
+      <c r="AH2">
+        <v>0.86085999999999996</v>
+      </c>
+      <c r="AI2">
+        <v>0.83411999999999997</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87443000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>0.84601999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.87927</v>
+      </c>
+      <c r="AM2">
+        <v>0.87036000000000002</v>
+      </c>
+      <c r="AN2">
+        <v>0.87121999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.8679</v>
+      </c>
+      <c r="AP2">
+        <v>0.84484999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="AR2">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="AS2">
+        <v>0.87812000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>0.86690999999999996</v>
+      </c>
+      <c r="AU2">
+        <v>0.85055000000000003</v>
+      </c>
+      <c r="AV2">
+        <v>0.85906000000000005</v>
+      </c>
+      <c r="AW2">
+        <v>0.87338000000000005</v>
+      </c>
+      <c r="AX2">
+        <v>0.84148999999999996</v>
+      </c>
+      <c r="AY2">
+        <v>0.86551999999999996</v>
+      </c>
+      <c r="AZ2">
+        <v>0.86433000000000004</v>
+      </c>
+      <c r="BA2">
+        <v>0.86917999999999995</v>
+      </c>
+      <c r="BB2">
+        <v>0.86597000000000002</v>
+      </c>
+      <c r="BC2">
+        <v>0.87446999999999997</v>
+      </c>
+      <c r="BD2">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="BE2">
+        <v>0.85011999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.87033000000000005</v>
+      </c>
+      <c r="BG2">
+        <v>0.87863000000000002</v>
+      </c>
+      <c r="BH2">
+        <v>0.85868</v>
+      </c>
+      <c r="BI2">
+        <v>0.85621999999999998</v>
+      </c>
+      <c r="BJ2">
+        <v>0.85990999999999995</v>
+      </c>
+      <c r="BK2">
+        <v>0.85994999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.87575999999999998</v>
+      </c>
+      <c r="BM2">
+        <v>0.86802999999999997</v>
+      </c>
+      <c r="BN2">
+        <v>0.87831000000000004</v>
+      </c>
+      <c r="BO2">
+        <v>0.84125000000000005</v>
+      </c>
+      <c r="BP2">
+        <v>0.88834000000000002</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86482999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.85346999999999995</v>
+      </c>
+      <c r="BS2">
+        <v>0.86568999999999996</v>
+      </c>
+      <c r="BT2">
+        <v>0.86255000000000004</v>
+      </c>
+      <c r="BU2">
+        <v>0.87336999999999998</v>
+      </c>
+      <c r="BV2">
+        <v>0.85985999999999996</v>
+      </c>
+      <c r="BW2">
+        <v>0.84580999999999995</v>
+      </c>
+      <c r="BX2">
+        <v>0.84892999999999996</v>
+      </c>
+      <c r="BY2">
+        <v>0.86077999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.84677999999999998</v>
+      </c>
+      <c r="CA2">
+        <v>0.83631999999999995</v>
+      </c>
+      <c r="CB2">
+        <v>0.85211999999999999</v>
+      </c>
+      <c r="CC2">
+        <v>0.88454999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.86011000000000004</v>
+      </c>
+      <c r="CE2">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="CF2">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.86829000000000001</v>
+      </c>
+      <c r="CH2">
+        <v>0.87241999999999997</v>
+      </c>
+      <c r="CI2">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="CJ2">
+        <v>0.86306000000000005</v>
+      </c>
+      <c r="CK2">
+        <v>0.85028999999999999</v>
+      </c>
+      <c r="CL2">
+        <v>0.86265000000000003</v>
+      </c>
+      <c r="CM2">
+        <v>0.87461999999999995</v>
+      </c>
+      <c r="CN2">
+        <v>0.87214000000000003</v>
+      </c>
+      <c r="CO2">
+        <v>0.84733999999999998</v>
+      </c>
+      <c r="CP2">
+        <v>0.87233000000000005</v>
+      </c>
+      <c r="CQ2">
+        <v>0.87477000000000005</v>
+      </c>
+      <c r="CR2">
+        <v>0.85114999999999996</v>
+      </c>
+      <c r="CS2">
+        <v>0.85955999999999999</v>
+      </c>
+      <c r="CT2">
+        <v>0.83633000000000002</v>
+      </c>
+      <c r="CU2">
+        <v>0.85631999999999997</v>
+      </c>
+      <c r="CV2">
+        <v>0.88778999999999997</v>
+      </c>
+      <c r="CW2">
+        <v>0.86148760000000024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="B3">
+        <v>0.86841000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.87187000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.84514</v>
+      </c>
+      <c r="G3">
+        <v>0.86880999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.83592</v>
+      </c>
+      <c r="I3">
+        <v>0.83703000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.87080999999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.87090999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="N3">
+        <v>0.85512999999999995</v>
+      </c>
+      <c r="O3">
+        <v>0.86616000000000004</v>
+      </c>
+      <c r="P3">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="Q3">
+        <v>0.87383</v>
+      </c>
+      <c r="R3">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="S3">
+        <v>0.84267999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.85494999999999999</v>
+      </c>
+      <c r="U3">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="V3">
+        <v>0.85097</v>
+      </c>
+      <c r="W3">
+        <v>0.87314000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.86002999999999996</v>
+      </c>
+      <c r="Y3">
+        <v>0.85404000000000002</v>
+      </c>
+      <c r="Z3">
+        <v>0.86931999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>0.86206000000000005</v>
+      </c>
+      <c r="AB3">
+        <v>0.86168999999999996</v>
+      </c>
+      <c r="AC3">
+        <v>0.87043999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.86448999999999998</v>
+      </c>
+      <c r="AE3">
+        <v>0.87775999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.86839</v>
+      </c>
+      <c r="AG3">
+        <v>0.86865000000000003</v>
+      </c>
+      <c r="AH3">
+        <v>0.86112999999999995</v>
+      </c>
+      <c r="AI3">
+        <v>0.86821999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.81637000000000004</v>
+      </c>
+      <c r="AK3">
+        <v>0.87624000000000002</v>
+      </c>
+      <c r="AL3">
+        <v>0.86068999999999996</v>
+      </c>
+      <c r="AM3">
+        <v>0.86909000000000003</v>
+      </c>
+      <c r="AN3">
+        <v>0.8508</v>
+      </c>
+      <c r="AO3">
+        <v>0.85711999999999999</v>
+      </c>
+      <c r="AP3">
+        <v>0.88783999999999996</v>
+      </c>
+      <c r="AQ3">
+        <v>0.85385999999999995</v>
+      </c>
+      <c r="AR3">
+        <v>0.85543000000000002</v>
+      </c>
+      <c r="AS3">
+        <v>0.84762999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>0.85933999999999999</v>
+      </c>
+      <c r="AU3">
+        <v>0.87429000000000001</v>
+      </c>
+      <c r="AV3">
+        <v>0.86848000000000003</v>
+      </c>
+      <c r="AW3">
+        <v>0.83562999999999998</v>
+      </c>
+      <c r="AX3">
+        <v>0.86368999999999996</v>
+      </c>
+      <c r="AY3">
+        <v>0.85392999999999997</v>
+      </c>
+      <c r="AZ3">
+        <v>0.87912999999999997</v>
+      </c>
+      <c r="BA3">
+        <v>0.85402999999999996</v>
+      </c>
+      <c r="BB3">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="BC3">
+        <v>0.87204999999999999</v>
+      </c>
+      <c r="BD3">
+        <v>0.84609000000000001</v>
+      </c>
+      <c r="BE3">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="BF3">
+        <v>0.85606000000000004</v>
+      </c>
+      <c r="BG3">
+        <v>0.84506999999999999</v>
+      </c>
+      <c r="BH3">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="BI3">
+        <v>0.84980999999999995</v>
+      </c>
+      <c r="BJ3">
+        <v>0.84860999999999998</v>
+      </c>
+      <c r="BK3">
+        <v>0.85309000000000001</v>
+      </c>
+      <c r="BL3">
+        <v>0.84136999999999995</v>
+      </c>
+      <c r="BM3">
+        <v>0.84524999999999995</v>
+      </c>
+      <c r="BN3">
+        <v>0.83284999999999998</v>
+      </c>
+      <c r="BO3">
+        <v>0.86565999999999999</v>
+      </c>
+      <c r="BP3">
+        <v>0.87216000000000005</v>
+      </c>
+      <c r="BQ3">
+        <v>0.86995</v>
+      </c>
+      <c r="BR3">
+        <v>0.86116999999999999</v>
+      </c>
+      <c r="BS3">
+        <v>0.83347000000000004</v>
+      </c>
+      <c r="BT3">
+        <v>0.87599000000000005</v>
+      </c>
+      <c r="BU3">
+        <v>0.86285000000000001</v>
+      </c>
+      <c r="BV3">
+        <v>0.85955000000000004</v>
+      </c>
+      <c r="BW3">
+        <v>0.86467000000000005</v>
+      </c>
+      <c r="BX3">
+        <v>0.85101000000000004</v>
+      </c>
+      <c r="BY3">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="BZ3">
+        <v>0.87766</v>
+      </c>
+      <c r="CA3">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="CB3">
+        <v>0.86978</v>
+      </c>
+      <c r="CC3">
+        <v>0.84794000000000003</v>
+      </c>
+      <c r="CD3">
+        <v>0.87712999999999997</v>
+      </c>
+      <c r="CE3">
+        <v>0.84591000000000005</v>
+      </c>
+      <c r="CF3">
+        <v>0.87539</v>
+      </c>
+      <c r="CG3">
+        <v>0.85131999999999997</v>
+      </c>
+      <c r="CH3">
+        <v>0.85519000000000001</v>
+      </c>
+      <c r="CI3">
+        <v>0.86292999999999997</v>
+      </c>
+      <c r="CJ3">
+        <v>0.86782999999999999</v>
+      </c>
+      <c r="CK3">
+        <v>0.86302000000000001</v>
+      </c>
+      <c r="CL3">
+        <v>0.82587999999999995</v>
+      </c>
+      <c r="CM3">
+        <v>0.85102999999999995</v>
+      </c>
+      <c r="CN3">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="CO3">
+        <v>0.86053000000000002</v>
+      </c>
+      <c r="CP3">
+        <v>0.85472000000000004</v>
+      </c>
+      <c r="CQ3">
+        <v>0.86384000000000005</v>
+      </c>
+      <c r="CR3">
+        <v>0.87400999999999995</v>
+      </c>
+      <c r="CS3">
+        <v>0.86872000000000005</v>
+      </c>
+      <c r="CT3">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="CU3">
+        <v>0.83726</v>
+      </c>
+      <c r="CV3">
+        <v>0.86922999999999995</v>
+      </c>
+      <c r="CW3">
+        <v>0.85833999999999977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.88531000000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.87316000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.86406000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.85053000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.85114000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.83682999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.84748999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.83687</v>
+      </c>
+      <c r="K4">
+        <v>0.8478</v>
+      </c>
+      <c r="L4">
+        <v>0.85367000000000004</v>
+      </c>
+      <c r="M4">
+        <v>0.85868</v>
+      </c>
+      <c r="N4">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="O4">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.86412999999999995</v>
+      </c>
+      <c r="Q4">
+        <v>0.87797999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.86443999999999999</v>
+      </c>
+      <c r="S4">
+        <v>0.86692000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="U4">
+        <v>0.85057000000000005</v>
+      </c>
+      <c r="V4">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="W4">
+        <v>0.88453000000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.83096999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.85833000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="AB4">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="AC4">
+        <v>0.87602000000000002</v>
+      </c>
+      <c r="AD4">
+        <v>0.85097</v>
+      </c>
+      <c r="AE4">
+        <v>0.87443000000000004</v>
+      </c>
+      <c r="AF4">
+        <v>0.84819</v>
+      </c>
+      <c r="AG4">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.85507999999999995</v>
+      </c>
+      <c r="AI4">
+        <v>0.86646000000000001</v>
+      </c>
+      <c r="AJ4">
+        <v>0.84787999999999997</v>
+      </c>
+      <c r="AK4">
+        <v>0.86431000000000002</v>
+      </c>
+      <c r="AL4">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="AM4">
+        <v>0.86826999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="AO4">
+        <v>0.84748999999999997</v>
+      </c>
+      <c r="AP4">
+        <v>0.86148000000000002</v>
+      </c>
+      <c r="AQ4">
+        <v>0.85885</v>
+      </c>
+      <c r="AR4">
+        <v>0.88378000000000001</v>
+      </c>
+      <c r="AS4">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="AT4">
+        <v>0.85707</v>
+      </c>
+      <c r="AU4">
+        <v>0.83459000000000005</v>
+      </c>
+      <c r="AV4">
+        <v>0.86695</v>
+      </c>
+      <c r="AW4">
+        <v>0.85404999999999998</v>
+      </c>
+      <c r="AX4">
+        <v>0.84108000000000005</v>
+      </c>
+      <c r="AY4">
+        <v>0.84892000000000001</v>
+      </c>
+      <c r="AZ4">
+        <v>0.87641000000000002</v>
+      </c>
+      <c r="BA4">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="BB4">
+        <v>0.86158999999999997</v>
+      </c>
+      <c r="BC4">
+        <v>0.88361000000000001</v>
+      </c>
+      <c r="BD4">
+        <v>0.84662000000000004</v>
+      </c>
+      <c r="BE4">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="BF4">
+        <v>0.82984000000000002</v>
+      </c>
+      <c r="BG4">
+        <v>0.87766999999999995</v>
+      </c>
+      <c r="BH4">
+        <v>0.86158000000000001</v>
+      </c>
+      <c r="BI4">
+        <v>0.85631000000000002</v>
+      </c>
+      <c r="BJ4">
+        <v>0.85816000000000003</v>
+      </c>
+      <c r="BK4">
+        <v>0.87907999999999997</v>
+      </c>
+      <c r="BL4">
+        <v>0.85919000000000001</v>
+      </c>
+      <c r="BM4">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="BN4">
+        <v>0.82557000000000003</v>
+      </c>
+      <c r="BO4">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="BP4">
+        <v>0.87119000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="BR4">
+        <v>0.84045999999999998</v>
+      </c>
+      <c r="BS4">
+        <v>0.85829</v>
+      </c>
+      <c r="BT4">
+        <v>0.84648999999999996</v>
+      </c>
+      <c r="BU4">
+        <v>0.87136999999999998</v>
+      </c>
+      <c r="BV4">
+        <v>0.82052999999999998</v>
+      </c>
+      <c r="BW4">
+        <v>0.86219000000000001</v>
+      </c>
+      <c r="BX4">
+        <v>0.85726999999999998</v>
+      </c>
+      <c r="BY4">
+        <v>0.86621000000000004</v>
+      </c>
+      <c r="BZ4">
+        <v>0.88251999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.86826999999999999</v>
+      </c>
+      <c r="CB4">
+        <v>0.84704000000000002</v>
+      </c>
+      <c r="CC4">
+        <v>0.86912</v>
+      </c>
+      <c r="CD4">
+        <v>0.84003000000000005</v>
+      </c>
+      <c r="CE4">
+        <v>0.88244999999999996</v>
+      </c>
+      <c r="CF4">
+        <v>0.86009000000000002</v>
+      </c>
+      <c r="CG4">
+        <v>0.83738999999999997</v>
+      </c>
+      <c r="CH4">
+        <v>0.86355000000000004</v>
+      </c>
+      <c r="CI4">
+        <v>0.84952000000000005</v>
+      </c>
+      <c r="CJ4">
+        <v>0.85145000000000004</v>
+      </c>
+      <c r="CK4">
+        <v>0.87229000000000001</v>
+      </c>
+      <c r="CL4">
+        <v>0.85758000000000001</v>
+      </c>
+      <c r="CM4">
+        <v>0.87448000000000004</v>
+      </c>
+      <c r="CN4">
+        <v>0.88358000000000003</v>
+      </c>
+      <c r="CO4">
+        <v>0.87758999999999998</v>
+      </c>
+      <c r="CP4">
+        <v>0.86738999999999999</v>
+      </c>
+      <c r="CQ4">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="CR4">
+        <v>0.88217999999999996</v>
+      </c>
+      <c r="CS4">
+        <v>0.83911999999999998</v>
+      </c>
+      <c r="CT4">
+        <v>0.85033999999999998</v>
+      </c>
+      <c r="CU4">
+        <v>0.86689000000000005</v>
+      </c>
+      <c r="CV4">
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="CW4">
+        <v>0.85963839999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.86367000000000005</v>
+      </c>
+      <c r="B5">
+        <v>0.87082999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.85141999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.84923999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.83518999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.84514999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.88409000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.86743000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.88573999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.8337</v>
+      </c>
+      <c r="K5">
+        <v>0.85694000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.83238999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.86348999999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.83564000000000005</v>
+      </c>
+      <c r="P5">
+        <v>0.84114999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.86038000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.85911000000000004</v>
+      </c>
+      <c r="S5">
+        <v>0.86363000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.86363999999999996</v>
+      </c>
+      <c r="U5">
+        <v>0.84552000000000005</v>
+      </c>
+      <c r="V5">
+        <v>0.85604999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0.87934000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.85226999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>0.84563999999999995</v>
+      </c>
+      <c r="Z5">
+        <v>0.87927</v>
+      </c>
+      <c r="AA5">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="AB5">
+        <v>0.87121999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.86712999999999996</v>
+      </c>
+      <c r="AD5">
+        <v>0.86216000000000004</v>
+      </c>
+      <c r="AE5">
+        <v>0.84979000000000005</v>
+      </c>
+      <c r="AF5">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>0.83948999999999996</v>
+      </c>
+      <c r="AH5">
+        <v>0.84767999999999999</v>
+      </c>
+      <c r="AI5">
+        <v>0.84009</v>
+      </c>
+      <c r="AJ5">
+        <v>0.84953000000000001</v>
+      </c>
+      <c r="AK5">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="AL5">
+        <v>0.87180999999999997</v>
+      </c>
+      <c r="AM5">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="AN5">
+        <v>0.83084999999999998</v>
+      </c>
+      <c r="AO5">
+        <v>0.86451</v>
+      </c>
+      <c r="AP5">
+        <v>0.84992000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.86394000000000004</v>
+      </c>
+      <c r="AR5">
+        <v>0.85653000000000001</v>
+      </c>
+      <c r="AS5">
+        <v>0.86107999999999996</v>
+      </c>
+      <c r="AT5">
+        <v>0.86124000000000001</v>
+      </c>
+      <c r="AU5">
+        <v>0.87955000000000005</v>
+      </c>
+      <c r="AV5">
+        <v>0.87968000000000002</v>
+      </c>
+      <c r="AW5">
+        <v>0.85563999999999996</v>
+      </c>
+      <c r="AX5">
+        <v>0.86094999999999999</v>
+      </c>
+      <c r="AY5">
+        <v>0.85141</v>
+      </c>
+      <c r="AZ5">
+        <v>0.86641000000000001</v>
+      </c>
+      <c r="BA5">
+        <v>0.86456999999999995</v>
+      </c>
+      <c r="BB5">
+        <v>0.84997999999999996</v>
+      </c>
+      <c r="BC5">
+        <v>0.83153999999999995</v>
+      </c>
+      <c r="BD5">
+        <v>0.85451999999999995</v>
+      </c>
+      <c r="BE5">
+        <v>0.83657999999999999</v>
+      </c>
+      <c r="BF5">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="BG5">
+        <v>0.86846999999999996</v>
+      </c>
+      <c r="BH5">
+        <v>0.85626000000000002</v>
+      </c>
+      <c r="BI5">
+        <v>0.85501000000000005</v>
+      </c>
+      <c r="BJ5">
+        <v>0.83091999999999999</v>
+      </c>
+      <c r="BK5">
+        <v>0.86824999999999997</v>
+      </c>
+      <c r="BL5">
+        <v>0.86792999999999998</v>
+      </c>
+      <c r="BM5">
+        <v>0.84469000000000005</v>
+      </c>
+      <c r="BN5">
+        <v>0.84211999999999998</v>
+      </c>
+      <c r="BO5">
+        <v>0.85907</v>
+      </c>
+      <c r="BP5">
+        <v>0.86997999999999998</v>
+      </c>
+      <c r="BQ5">
+        <v>0.87736999999999998</v>
+      </c>
+      <c r="BR5">
+        <v>0.86038000000000003</v>
+      </c>
+      <c r="BS5">
+        <v>0.83975999999999995</v>
+      </c>
+      <c r="BT5">
+        <v>0.86629</v>
+      </c>
+      <c r="BU5">
+        <v>0.83123999999999998</v>
+      </c>
+      <c r="BV5">
+        <v>0.84240999999999999</v>
+      </c>
+      <c r="BW5">
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="BX5">
+        <v>0.85296000000000005</v>
+      </c>
+      <c r="BY5">
+        <v>0.86372000000000004</v>
+      </c>
+      <c r="BZ5">
+        <v>0.85041999999999995</v>
+      </c>
+      <c r="CA5">
+        <v>0.83021</v>
+      </c>
+      <c r="CB5">
+        <v>0.86167000000000005</v>
+      </c>
+      <c r="CC5">
+        <v>0.86753999999999998</v>
+      </c>
+      <c r="CD5">
+        <v>0.84850999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.85172000000000003</v>
+      </c>
+      <c r="CF5">
+        <v>0.86438000000000004</v>
+      </c>
+      <c r="CG5">
+        <v>0.84592000000000001</v>
+      </c>
+      <c r="CH5">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="CI5">
+        <v>0.84699000000000002</v>
+      </c>
+      <c r="CJ5">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="CK5">
+        <v>0.85607999999999995</v>
+      </c>
+      <c r="CL5">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="CM5">
+        <v>0.84543999999999997</v>
+      </c>
+      <c r="CN5">
+        <v>0.85038999999999998</v>
+      </c>
+      <c r="CO5">
+        <v>0.86675999999999997</v>
+      </c>
+      <c r="CP5">
+        <v>0.83928999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>0.84943000000000002</v>
+      </c>
+      <c r="CR5">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="CS5">
+        <v>0.84852000000000005</v>
+      </c>
+      <c r="CT5">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="CU5">
+        <v>0.84626999999999997</v>
+      </c>
+      <c r="CV5">
+        <v>0.83975999999999995</v>
+      </c>
+      <c r="CW5">
+        <v>0.85494030000000021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.86355999999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.86041000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.83794999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.86253000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.87346999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.85243000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.85082999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.86538999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.86065000000000003</v>
+      </c>
+      <c r="K6">
+        <v>0.86795</v>
+      </c>
+      <c r="L6">
+        <v>0.83457000000000003</v>
+      </c>
+      <c r="M6">
+        <v>0.81696000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.85699000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.87065999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.85845000000000005</v>
+      </c>
+      <c r="Q6">
+        <v>0.84465999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.86204000000000003</v>
+      </c>
+      <c r="S6">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.87383999999999995</v>
+      </c>
+      <c r="U6">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="V6">
+        <v>0.84982999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.86243000000000003</v>
+      </c>
+      <c r="X6">
+        <v>0.86929000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.83740999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="AA6">
+        <v>0.86231999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.85821000000000003</v>
+      </c>
+      <c r="AD6">
+        <v>0.86555000000000004</v>
+      </c>
+      <c r="AE6">
+        <v>0.86575999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.86143000000000003</v>
+      </c>
+      <c r="AG6">
+        <v>0.85577999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="AI6">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.83253999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.86082999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0.8579</v>
+      </c>
+      <c r="AM6">
+        <v>0.85521000000000003</v>
+      </c>
+      <c r="AN6">
+        <v>0.83772000000000002</v>
+      </c>
+      <c r="AO6">
+        <v>0.85736999999999997</v>
+      </c>
+      <c r="AP6">
+        <v>0.85192999999999997</v>
+      </c>
+      <c r="AQ6">
+        <v>0.84536999999999995</v>
+      </c>
+      <c r="AR6">
+        <v>0.85987000000000002</v>
+      </c>
+      <c r="AS6">
+        <v>0.84421000000000002</v>
+      </c>
+      <c r="AT6">
+        <v>0.84728999999999999</v>
+      </c>
+      <c r="AU6">
+        <v>0.83918999999999999</v>
+      </c>
+      <c r="AV6">
+        <v>0.8629</v>
+      </c>
+      <c r="AW6">
+        <v>0.87282999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0.87358999999999998</v>
+      </c>
+      <c r="AY6">
+        <v>0.87029000000000001</v>
+      </c>
+      <c r="AZ6">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="BA6">
+        <v>0.86217999999999995</v>
+      </c>
+      <c r="BB6">
+        <v>0.84667000000000003</v>
+      </c>
+      <c r="BC6">
+        <v>0.86282999999999999</v>
+      </c>
+      <c r="BD6">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="BE6">
+        <v>0.83318999999999999</v>
+      </c>
+      <c r="BF6">
+        <v>0.86634999999999995</v>
+      </c>
+      <c r="BG6">
+        <v>0.85643999999999998</v>
+      </c>
+      <c r="BH6">
+        <v>0.87704000000000004</v>
+      </c>
+      <c r="BI6">
+        <v>0.84375999999999995</v>
+      </c>
+      <c r="BJ6">
+        <v>0.86312999999999995</v>
+      </c>
+      <c r="BK6">
+        <v>0.85331999999999997</v>
+      </c>
+      <c r="BL6">
+        <v>0.83125000000000004</v>
+      </c>
+      <c r="BM6">
+        <v>0.86787000000000003</v>
+      </c>
+      <c r="BN6">
+        <v>0.85577000000000003</v>
+      </c>
+      <c r="BO6">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="BP6">
+        <v>0.82359000000000004</v>
+      </c>
+      <c r="BQ6">
+        <v>0.86248000000000002</v>
+      </c>
+      <c r="BR6">
+        <v>0.86170999999999998</v>
+      </c>
+      <c r="BS6">
+        <v>0.84752000000000005</v>
+      </c>
+      <c r="BT6">
+        <v>0.87932999999999995</v>
+      </c>
+      <c r="BU6">
+        <v>0.84316000000000002</v>
+      </c>
+      <c r="BV6">
+        <v>0.85787999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.87085000000000001</v>
+      </c>
+      <c r="BX6">
+        <v>0.84553</v>
+      </c>
+      <c r="BY6">
+        <v>0.84235000000000004</v>
+      </c>
+      <c r="BZ6">
+        <v>0.87727999999999995</v>
+      </c>
+      <c r="CA6">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="CB6">
+        <v>0.86473999999999995</v>
+      </c>
+      <c r="CC6">
+        <v>0.85602999999999996</v>
+      </c>
+      <c r="CD6">
+        <v>0.85297999999999996</v>
+      </c>
+      <c r="CE6">
+        <v>0.84968999999999995</v>
+      </c>
+      <c r="CF6">
+        <v>0.82082999999999995</v>
+      </c>
+      <c r="CG6">
+        <v>0.86190999999999995</v>
+      </c>
+      <c r="CH6">
+        <v>0.85650999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>0.86855000000000004</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84306000000000003</v>
+      </c>
+      <c r="CK6">
+        <v>0.84311000000000003</v>
+      </c>
+      <c r="CL6">
+        <v>0.85141</v>
+      </c>
+      <c r="CM6">
+        <v>0.88302000000000003</v>
+      </c>
+      <c r="CN6">
+        <v>0.86238000000000004</v>
+      </c>
+      <c r="CO6">
+        <v>0.8669</v>
+      </c>
+      <c r="CP6">
+        <v>0.85755000000000003</v>
+      </c>
+      <c r="CQ6">
+        <v>0.85946999999999996</v>
+      </c>
+      <c r="CR6">
+        <v>0.87604000000000004</v>
+      </c>
+      <c r="CS6">
+        <v>0.82726999999999995</v>
+      </c>
+      <c r="CT6">
+        <v>0.86843000000000004</v>
+      </c>
+      <c r="CU6">
+        <v>0.85946</v>
+      </c>
+      <c r="CV6">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="CW6">
+        <v>0.85616809999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="B7">
+        <v>0.86268</v>
+      </c>
+      <c r="C7">
+        <v>0.84733999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.85511000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.86904999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.83008000000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.85438999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.85443000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.83594999999999997</v>
+      </c>
+      <c r="L7">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="M7">
+        <v>0.84026000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.85077999999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.86470999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.86417999999999995</v>
+      </c>
+      <c r="Q7">
+        <v>0.84253</v>
+      </c>
+      <c r="R7">
+        <v>0.86182999999999998</v>
+      </c>
+      <c r="S7">
+        <v>0.83198000000000005</v>
+      </c>
+      <c r="T7">
+        <v>0.84394999999999998</v>
+      </c>
+      <c r="U7">
+        <v>0.82952000000000004</v>
+      </c>
+      <c r="V7">
+        <v>0.84765000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.85148000000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0.83291000000000004</v>
+      </c>
+      <c r="Z7">
+        <v>0.85526999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.83243999999999996</v>
+      </c>
+      <c r="AB7">
+        <v>0.86060999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.84499000000000002</v>
+      </c>
+      <c r="AD7">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="AE7">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="AG7">
+        <v>0.83850999999999998</v>
+      </c>
+      <c r="AH7">
+        <v>0.85731000000000002</v>
+      </c>
+      <c r="AI7">
+        <v>0.84585999999999995</v>
+      </c>
+      <c r="AJ7">
+        <v>0.86897999999999997</v>
+      </c>
+      <c r="AK7">
+        <v>0.85868</v>
+      </c>
+      <c r="AL7">
+        <v>0.86129</v>
+      </c>
+      <c r="AM7">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="AN7">
+        <v>0.83572999999999997</v>
+      </c>
+      <c r="AO7">
+        <v>0.84013000000000004</v>
+      </c>
+      <c r="AP7">
+        <v>0.85172999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="AR7">
+        <v>0.82987999999999995</v>
+      </c>
+      <c r="AS7">
+        <v>0.87087999999999999</v>
+      </c>
+      <c r="AT7">
+        <v>0.83858999999999995</v>
+      </c>
+      <c r="AU7">
+        <v>0.86233000000000004</v>
+      </c>
+      <c r="AV7">
+        <v>0.86738000000000004</v>
+      </c>
+      <c r="AW7">
+        <v>0.84479000000000004</v>
+      </c>
+      <c r="AX7">
+        <v>0.86390999999999996</v>
+      </c>
+      <c r="AY7">
+        <v>0.84565999999999997</v>
+      </c>
+      <c r="AZ7">
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="BA7">
+        <v>0.86487000000000003</v>
+      </c>
+      <c r="BB7">
+        <v>0.85658999999999996</v>
+      </c>
+      <c r="BC7">
+        <v>0.8629</v>
+      </c>
+      <c r="BD7">
+        <v>0.84143000000000001</v>
+      </c>
+      <c r="BE7">
+        <v>0.83908000000000005</v>
+      </c>
+      <c r="BF7">
+        <v>0.85102999999999995</v>
+      </c>
+      <c r="BG7">
+        <v>0.83572000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>0.84679000000000004</v>
+      </c>
+      <c r="BI7">
+        <v>0.86272000000000004</v>
+      </c>
+      <c r="BJ7">
+        <v>0.84562000000000004</v>
+      </c>
+      <c r="BK7">
+        <v>0.86099000000000003</v>
+      </c>
+      <c r="BL7">
+        <v>0.85955000000000004</v>
+      </c>
+      <c r="BM7">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="BN7">
+        <v>0.85204999999999997</v>
+      </c>
+      <c r="BO7">
+        <v>0.84928999999999999</v>
+      </c>
+      <c r="BP7">
+        <v>0.81667999999999996</v>
+      </c>
+      <c r="BQ7">
+        <v>0.85192000000000001</v>
+      </c>
+      <c r="BR7">
+        <v>0.88266999999999995</v>
+      </c>
+      <c r="BS7">
+        <v>0.86733000000000005</v>
+      </c>
+      <c r="BT7">
+        <v>0.85431999999999997</v>
+      </c>
+      <c r="BU7">
+        <v>0.82364000000000004</v>
+      </c>
+      <c r="BV7">
+        <v>0.85848999999999998</v>
+      </c>
+      <c r="BW7">
+        <v>0.84079000000000004</v>
+      </c>
+      <c r="BX7">
+        <v>0.83748</v>
+      </c>
+      <c r="BY7">
+        <v>0.85470999999999997</v>
+      </c>
+      <c r="BZ7">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="CA7">
+        <v>0.84318000000000004</v>
+      </c>
+      <c r="CB7">
+        <v>0.87295999999999996</v>
+      </c>
+      <c r="CC7">
+        <v>0.82138</v>
+      </c>
+      <c r="CD7">
+        <v>0.86180999999999996</v>
+      </c>
+      <c r="CE7">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="CF7">
+        <v>0.83252999999999999</v>
+      </c>
+      <c r="CG7">
+        <v>0.87504000000000004</v>
+      </c>
+      <c r="CH7">
+        <v>0.84509000000000001</v>
+      </c>
+      <c r="CI7">
+        <v>0.88234999999999997</v>
+      </c>
+      <c r="CJ7">
+        <v>0.84258</v>
+      </c>
+      <c r="CK7">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="CL7">
+        <v>0.87141999999999997</v>
+      </c>
+      <c r="CM7">
+        <v>0.84955000000000003</v>
+      </c>
+      <c r="CN7">
+        <v>0.85496000000000005</v>
+      </c>
+      <c r="CO7">
+        <v>0.83823999999999999</v>
+      </c>
+      <c r="CP7">
+        <v>0.86331000000000002</v>
+      </c>
+      <c r="CQ7">
+        <v>0.83603000000000005</v>
+      </c>
+      <c r="CR7">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="CS7">
+        <v>0.86382999999999999</v>
+      </c>
+      <c r="CT7">
+        <v>0.84187999999999996</v>
+      </c>
+      <c r="CU7">
+        <v>0.83945000000000003</v>
+      </c>
+      <c r="CV7">
+        <v>0.84101999999999999</v>
+      </c>
+      <c r="CW7">
+        <v>0.85196760000000027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.85014000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.83755000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.85155999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.86682999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.85601000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.83225000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.84013000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.84333999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.85387999999999997</v>
+      </c>
+      <c r="L8">
+        <v>0.84941999999999995</v>
+      </c>
+      <c r="M8">
+        <v>0.84916000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="P8">
+        <v>0.83945000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.8528</v>
+      </c>
+      <c r="R8">
+        <v>0.81803999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="T8">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="U8">
+        <v>0.85114000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.87402000000000002</v>
+      </c>
+      <c r="W8">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="X8">
+        <v>0.84104999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>0.86448999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>0.83911000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.82847000000000004</v>
+      </c>
+      <c r="AB8">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="AC8">
+        <v>0.84921000000000002</v>
+      </c>
+      <c r="AD8">
+        <v>0.84772999999999998</v>
+      </c>
+      <c r="AE8">
+        <v>0.87997000000000003</v>
+      </c>
+      <c r="AF8">
+        <v>0.84831000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.83443999999999996</v>
+      </c>
+      <c r="AI8">
+        <v>0.85853000000000002</v>
+      </c>
+      <c r="AJ8">
+        <v>0.84609000000000001</v>
+      </c>
+      <c r="AK8">
+        <v>0.84516000000000002</v>
+      </c>
+      <c r="AL8">
+        <v>0.84772000000000003</v>
+      </c>
+      <c r="AM8">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="AN8">
+        <v>0.82033</v>
+      </c>
+      <c r="AO8">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="AP8">
+        <v>0.86428000000000005</v>
+      </c>
+      <c r="AQ8">
+        <v>0.83503000000000005</v>
+      </c>
+      <c r="AR8">
+        <v>0.85133000000000003</v>
+      </c>
+      <c r="AS8">
+        <v>0.86097999999999997</v>
+      </c>
+      <c r="AT8">
+        <v>0.86438000000000004</v>
+      </c>
+      <c r="AU8">
+        <v>0.87028000000000005</v>
+      </c>
+      <c r="AV8">
+        <v>0.83858999999999995</v>
+      </c>
+      <c r="AW8">
+        <v>0.84967000000000004</v>
+      </c>
+      <c r="AX8">
+        <v>0.84926000000000001</v>
+      </c>
+      <c r="AY8">
+        <v>0.85245000000000004</v>
+      </c>
+      <c r="AZ8">
+        <v>0.82806999999999997</v>
+      </c>
+      <c r="BA8">
+        <v>0.84482000000000002</v>
+      </c>
+      <c r="BB8">
+        <v>0.84858999999999996</v>
+      </c>
+      <c r="BC8">
+        <v>0.83489000000000002</v>
+      </c>
+      <c r="BD8">
+        <v>0.86177000000000004</v>
+      </c>
+      <c r="BE8">
+        <v>0.82042000000000004</v>
+      </c>
+      <c r="BF8">
+        <v>0.85912999999999995</v>
+      </c>
+      <c r="BG8">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="BH8">
+        <v>0.83877999999999997</v>
+      </c>
+      <c r="BI8">
+        <v>0.83696000000000004</v>
+      </c>
+      <c r="BJ8">
+        <v>0.84448999999999996</v>
+      </c>
+      <c r="BK8">
+        <v>0.84899000000000002</v>
+      </c>
+      <c r="BL8">
+        <v>0.84562000000000004</v>
+      </c>
+      <c r="BM8">
+        <v>0.84758999999999995</v>
+      </c>
+      <c r="BN8">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="BO8">
+        <v>0.84221999999999997</v>
+      </c>
+      <c r="BP8">
+        <v>0.84836999999999996</v>
+      </c>
+      <c r="BQ8">
+        <v>0.87356999999999996</v>
+      </c>
+      <c r="BR8">
+        <v>0.85043000000000002</v>
+      </c>
+      <c r="BS8">
+        <v>0.84641</v>
+      </c>
+      <c r="BT8">
+        <v>0.84516999999999998</v>
+      </c>
+      <c r="BU8">
+        <v>0.85501000000000005</v>
+      </c>
+      <c r="BV8">
+        <v>0.84711999999999998</v>
+      </c>
+      <c r="BW8">
+        <v>0.85455000000000003</v>
+      </c>
+      <c r="BX8">
+        <v>0.84238999999999997</v>
+      </c>
+      <c r="BY8">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="BZ8">
+        <v>0.87673000000000001</v>
+      </c>
+      <c r="CA8">
+        <v>0.84467999999999999</v>
+      </c>
+      <c r="CB8">
+        <v>0.82594999999999996</v>
+      </c>
+      <c r="CC8">
+        <v>0.85311999999999999</v>
+      </c>
+      <c r="CD8">
+        <v>0.85885</v>
+      </c>
+      <c r="CE8">
+        <v>0.84421999999999997</v>
+      </c>
+      <c r="CF8">
+        <v>0.84587000000000001</v>
+      </c>
+      <c r="CG8">
+        <v>0.83735000000000004</v>
+      </c>
+      <c r="CH8">
+        <v>0.85594999999999999</v>
+      </c>
+      <c r="CI8">
+        <v>0.82460999999999995</v>
+      </c>
+      <c r="CJ8">
+        <v>0.86492000000000002</v>
+      </c>
+      <c r="CK8">
+        <v>0.85146999999999995</v>
+      </c>
+      <c r="CL8">
+        <v>0.82193000000000005</v>
+      </c>
+      <c r="CM8">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="CN8">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="CO8">
+        <v>0.87302999999999997</v>
+      </c>
+      <c r="CP8">
+        <v>0.87656000000000001</v>
+      </c>
+      <c r="CQ8">
+        <v>0.84589000000000003</v>
+      </c>
+      <c r="CR8">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="CS8">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="CT8">
+        <v>0.84084999999999999</v>
+      </c>
+      <c r="CU8">
+        <v>0.85367000000000004</v>
+      </c>
+      <c r="CV8">
+        <v>0.85848999999999998</v>
+      </c>
+      <c r="CW8">
+        <v>0.84827140000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.87222</v>
+      </c>
+      <c r="B9">
+        <v>0.85684000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.85343000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.85350999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.84377000000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.83128000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.87229000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.83028999999999997</v>
+      </c>
+      <c r="K9">
+        <v>0.85107999999999995</v>
+      </c>
+      <c r="L9">
+        <v>0.84891000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.83916999999999997</v>
+      </c>
+      <c r="N9">
+        <v>0.84835000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.86204999999999998</v>
+      </c>
+      <c r="P9">
+        <v>0.83504999999999996</v>
+      </c>
+      <c r="Q9">
+        <v>0.86358000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.86168</v>
+      </c>
+      <c r="S9">
+        <v>0.84177999999999997</v>
+      </c>
+      <c r="T9">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0.84784000000000004</v>
+      </c>
+      <c r="W9">
+        <v>0.86468</v>
+      </c>
+      <c r="X9">
+        <v>0.84923000000000004</v>
+      </c>
+      <c r="Y9">
+        <v>0.86582000000000003</v>
+      </c>
+      <c r="Z9">
+        <v>0.82945000000000002</v>
+      </c>
+      <c r="AA9">
+        <v>0.87646999999999997</v>
+      </c>
+      <c r="AB9">
+        <v>0.87285000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.85477000000000003</v>
+      </c>
+      <c r="AD9">
+        <v>0.85982999999999998</v>
+      </c>
+      <c r="AE9">
+        <v>0.83911000000000002</v>
+      </c>
+      <c r="AF9">
+        <v>0.84850999999999999</v>
+      </c>
+      <c r="AG9">
+        <v>0.86651999999999996</v>
+      </c>
+      <c r="AH9">
+        <v>0.85792999999999997</v>
+      </c>
+      <c r="AI9">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="AJ9">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="AK9">
+        <v>0.84601999999999999</v>
+      </c>
+      <c r="AL9">
+        <v>0.84631000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="AN9">
+        <v>0.84923999999999999</v>
+      </c>
+      <c r="AO9">
+        <v>0.86661999999999995</v>
+      </c>
+      <c r="AP9">
+        <v>0.85072000000000003</v>
+      </c>
+      <c r="AQ9">
+        <v>0.85675000000000001</v>
+      </c>
+      <c r="AR9">
+        <v>0.85397999999999996</v>
+      </c>
+      <c r="AS9">
+        <v>0.86541999999999997</v>
+      </c>
+      <c r="AT9">
+        <v>0.83148999999999995</v>
+      </c>
+      <c r="AU9">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="AV9">
+        <v>0.86492999999999998</v>
+      </c>
+      <c r="AW9">
+        <v>0.84506000000000003</v>
+      </c>
+      <c r="AX9">
+        <v>0.84984000000000004</v>
+      </c>
+      <c r="AY9">
+        <v>0.82643999999999995</v>
+      </c>
+      <c r="AZ9">
+        <v>0.83848999999999996</v>
+      </c>
+      <c r="BA9">
+        <v>0.83758999999999995</v>
+      </c>
+      <c r="BB9">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="BC9">
+        <v>0.86816000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.86112999999999995</v>
+      </c>
+      <c r="BE9">
+        <v>0.85987999999999998</v>
+      </c>
+      <c r="BF9">
+        <v>0.86760999999999999</v>
+      </c>
+      <c r="BG9">
         <v>0.84755000000000003</v>
       </c>
-      <c r="C1">
-        <v>0.85724</v>
+      <c r="BH9">
+        <v>0.86855000000000004</v>
+      </c>
+      <c r="BI9">
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="BJ9">
+        <v>0.86634999999999995</v>
+      </c>
+      <c r="BK9">
+        <v>0.86912</v>
+      </c>
+      <c r="BL9">
+        <v>0.84874000000000005</v>
+      </c>
+      <c r="BM9">
+        <v>0.83550999999999997</v>
+      </c>
+      <c r="BN9">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="BO9">
+        <v>0.83447000000000005</v>
+      </c>
+      <c r="BP9">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="BQ9">
+        <v>0.85031999999999996</v>
+      </c>
+      <c r="BR9">
+        <v>0.84135000000000004</v>
+      </c>
+      <c r="BS9">
+        <v>0.84289000000000003</v>
+      </c>
+      <c r="BT9">
+        <v>0.84424999999999994</v>
+      </c>
+      <c r="BU9">
+        <v>0.86277000000000004</v>
+      </c>
+      <c r="BV9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="BW9">
+        <v>0.84543999999999997</v>
+      </c>
+      <c r="BX9">
+        <v>0.85941999999999996</v>
+      </c>
+      <c r="BY9">
+        <v>0.83359000000000005</v>
+      </c>
+      <c r="BZ9">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="CA9">
+        <v>0.86441999999999997</v>
+      </c>
+      <c r="CB9">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="CC9">
+        <v>0.82521999999999995</v>
+      </c>
+      <c r="CD9">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="CE9">
+        <v>0.86551999999999996</v>
+      </c>
+      <c r="CF9">
+        <v>0.84248000000000001</v>
+      </c>
+      <c r="CG9">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="CH9">
+        <v>0.84504000000000001</v>
+      </c>
+      <c r="CI9">
+        <v>0.83733000000000002</v>
+      </c>
+      <c r="CJ9">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="CK9">
+        <v>0.84274000000000004</v>
+      </c>
+      <c r="CL9">
+        <v>0.82799</v>
+      </c>
+      <c r="CM9">
+        <v>0.84038000000000002</v>
+      </c>
+      <c r="CN9">
+        <v>0.87621000000000004</v>
+      </c>
+      <c r="CO9">
+        <v>0.85080999999999996</v>
+      </c>
+      <c r="CP9">
+        <v>0.83662999999999998</v>
+      </c>
+      <c r="CQ9">
+        <v>0.83743999999999996</v>
+      </c>
+      <c r="CR9">
+        <v>0.83828000000000003</v>
+      </c>
+      <c r="CS9">
+        <v>0.84445000000000003</v>
+      </c>
+      <c r="CT9">
+        <v>0.86321999999999999</v>
+      </c>
+      <c r="CU9">
+        <v>0.83948999999999996</v>
+      </c>
+      <c r="CV9">
+        <v>0.84148999999999996</v>
+      </c>
+      <c r="CW9">
+        <v>0.8508205999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87438000000000005</v>
-      </c>
-      <c r="B2">
-        <v>0.86136000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.86787000000000003</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.85412999999999994</v>
+      </c>
+      <c r="B10">
+        <v>0.85909000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.85092999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.83886000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.83967000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.86611000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.84852000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.83306000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.86641000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.85804999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.84052000000000004</v>
+      </c>
+      <c r="M10">
+        <v>0.84982999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.83148999999999995</v>
+      </c>
+      <c r="O10">
+        <v>0.85436000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.83633999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="S10">
+        <v>0.83672000000000002</v>
+      </c>
+      <c r="T10">
+        <v>0.83562000000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.8498</v>
+      </c>
+      <c r="V10">
+        <v>0.81752999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.83091999999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.84477999999999998</v>
+      </c>
+      <c r="Y10">
+        <v>0.85487999999999997</v>
+      </c>
+      <c r="Z10">
+        <v>0.86021000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>0.84099000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.85470999999999997</v>
+      </c>
+      <c r="AC10">
+        <v>0.85843999999999998</v>
+      </c>
+      <c r="AD10">
+        <v>0.83999000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>0.85006000000000004</v>
+      </c>
+      <c r="AF10">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="AG10">
+        <v>0.85436999999999996</v>
+      </c>
+      <c r="AH10">
+        <v>0.85436999999999996</v>
+      </c>
+      <c r="AI10">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="AJ10">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="AK10">
+        <v>0.82821999999999996</v>
+      </c>
+      <c r="AL10">
+        <v>0.84038999999999997</v>
+      </c>
+      <c r="AM10">
+        <v>0.81281999999999999</v>
+      </c>
+      <c r="AN10">
+        <v>0.83886000000000005</v>
+      </c>
+      <c r="AO10">
+        <v>0.86336000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>0.82094999999999996</v>
+      </c>
+      <c r="AQ10">
+        <v>0.84221999999999997</v>
+      </c>
+      <c r="AR10">
+        <v>0.84118000000000004</v>
+      </c>
+      <c r="AS10">
+        <v>0.83225000000000005</v>
+      </c>
+      <c r="AT10">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="AU10">
+        <v>0.86014999999999997</v>
+      </c>
+      <c r="AV10">
+        <v>0.84048</v>
+      </c>
+      <c r="AW10">
+        <v>0.84275999999999995</v>
+      </c>
+      <c r="AX10">
+        <v>0.85043000000000002</v>
+      </c>
+      <c r="AY10">
+        <v>0.82316</v>
+      </c>
+      <c r="AZ10">
+        <v>0.84235000000000004</v>
+      </c>
+      <c r="BA10">
+        <v>0.84413000000000005</v>
+      </c>
+      <c r="BB10">
+        <v>0.86833000000000005</v>
+      </c>
+      <c r="BC10">
+        <v>0.86553000000000002</v>
+      </c>
+      <c r="BD10">
+        <v>0.84143000000000001</v>
+      </c>
+      <c r="BE10">
+        <v>0.85389000000000004</v>
+      </c>
+      <c r="BF10">
+        <v>0.82887999999999995</v>
+      </c>
+      <c r="BG10">
+        <v>0.84279000000000004</v>
+      </c>
+      <c r="BH10">
+        <v>0.84579000000000004</v>
+      </c>
+      <c r="BI10">
+        <v>0.86399000000000004</v>
+      </c>
+      <c r="BJ10">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="BK10">
+        <v>0.85585999999999995</v>
+      </c>
+      <c r="BL10">
+        <v>0.81630999999999998</v>
+      </c>
+      <c r="BM10">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="BN10">
+        <v>0.87514999999999998</v>
+      </c>
+      <c r="BO10">
+        <v>0.82225999999999999</v>
+      </c>
+      <c r="BP10">
+        <v>0.84206000000000003</v>
+      </c>
+      <c r="BQ10">
+        <v>0.86431000000000002</v>
+      </c>
+      <c r="BR10">
+        <v>0.84411999999999998</v>
+      </c>
+      <c r="BS10">
+        <v>0.87311000000000005</v>
+      </c>
+      <c r="BT10">
+        <v>0.82504</v>
+      </c>
+      <c r="BU10">
+        <v>0.83262999999999998</v>
+      </c>
+      <c r="BV10">
+        <v>0.84862000000000004</v>
+      </c>
+      <c r="BW10">
+        <v>0.84619</v>
+      </c>
+      <c r="BX10">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="BY10">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="BZ10">
+        <v>0.84997999999999996</v>
+      </c>
+      <c r="CA10">
+        <v>0.83364000000000005</v>
+      </c>
+      <c r="CB10">
+        <v>0.85243999999999998</v>
+      </c>
+      <c r="CC10">
+        <v>0.86356999999999995</v>
+      </c>
+      <c r="CD10">
+        <v>0.85770999999999997</v>
+      </c>
+      <c r="CE10">
+        <v>0.85213000000000005</v>
+      </c>
+      <c r="CF10">
+        <v>0.81245000000000001</v>
+      </c>
+      <c r="CG10">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="CH10">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="CI10">
+        <v>0.81350999999999996</v>
+      </c>
+      <c r="CJ10">
+        <v>0.84872999999999998</v>
+      </c>
+      <c r="CK10">
+        <v>0.84936</v>
+      </c>
+      <c r="CL10">
+        <v>0.85458000000000001</v>
+      </c>
+      <c r="CM10">
+        <v>0.87536000000000003</v>
+      </c>
+      <c r="CN10">
+        <v>0.84009</v>
+      </c>
+      <c r="CO10">
+        <v>0.86944999999999995</v>
+      </c>
+      <c r="CP10">
+        <v>0.84099000000000002</v>
+      </c>
+      <c r="CQ10">
+        <v>0.87353000000000003</v>
+      </c>
+      <c r="CR10">
+        <v>0.84413000000000005</v>
+      </c>
+      <c r="CS10">
+        <v>0.85360999999999998</v>
+      </c>
+      <c r="CT10">
+        <v>0.84733999999999998</v>
+      </c>
+      <c r="CU10">
+        <v>0.85119</v>
+      </c>
+      <c r="CV10">
+        <v>0.86961999999999995</v>
+      </c>
+      <c r="CW10">
+        <v>0.84703750000000033</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.85168999999999995</v>
-      </c>
-      <c r="B3">
-        <v>0.86507999999999996</v>
-      </c>
-      <c r="C3">
-        <v>0.85838499999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.82647000000000004</v>
-      </c>
-      <c r="B4">
-        <v>0.87333000000000005</v>
-      </c>
-      <c r="C4">
-        <v>0.8499000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.86648000000000003</v>
-      </c>
-      <c r="B5">
-        <v>0.86294000000000004</v>
-      </c>
-      <c r="C5">
-        <v>0.86471000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.86297999999999997</v>
-      </c>
-      <c r="B6">
-        <v>0.84743000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.85520499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="B7">
-        <v>0.85723000000000005</v>
-      </c>
-      <c r="C7">
-        <v>0.85021499999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.84636999999999996</v>
-      </c>
-      <c r="B8">
-        <v>0.84216000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.84426500000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.84663999999999995</v>
-      </c>
-      <c r="B9">
-        <v>0.85955000000000004</v>
-      </c>
-      <c r="C9">
-        <v>0.85309499999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.83391000000000004</v>
-      </c>
-      <c r="B10">
-        <v>0.84291000000000005</v>
-      </c>
-      <c r="C10">
-        <v>0.8384100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.86897000000000002</v>
+        <v>0.84918000000000005</v>
       </c>
       <c r="B11">
-        <v>0.84294000000000002</v>
+        <v>0.86195999999999995</v>
       </c>
       <c r="C11">
-        <v>0.85595500000000002</v>
+        <v>0.84706999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.85963000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.83291999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.83399000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.86036000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.85016999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.84938000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.83116999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.84157000000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.84184000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.83897999999999995</v>
+      </c>
+      <c r="N11">
+        <v>0.83335000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.86243000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>0.84865000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.85085999999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.83723000000000003</v>
+      </c>
+      <c r="T11">
+        <v>0.83953</v>
+      </c>
+      <c r="U11">
+        <v>0.85623000000000005</v>
+      </c>
+      <c r="V11">
+        <v>0.82970999999999995</v>
+      </c>
+      <c r="W11">
+        <v>0.82259000000000004</v>
+      </c>
+      <c r="X11">
+        <v>0.83543999999999996</v>
+      </c>
+      <c r="Y11">
+        <v>0.86090999999999995</v>
+      </c>
+      <c r="Z11">
+        <v>0.84692999999999996</v>
+      </c>
+      <c r="AA11">
+        <v>0.83935999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.83947000000000005</v>
+      </c>
+      <c r="AC11">
+        <v>0.85677000000000003</v>
+      </c>
+      <c r="AD11">
+        <v>0.83938000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>0.85043999999999997</v>
+      </c>
+      <c r="AF11">
+        <v>0.83975</v>
+      </c>
+      <c r="AG11">
+        <v>0.83804000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>0.84524999999999995</v>
+      </c>
+      <c r="AI11">
+        <v>0.82677999999999996</v>
+      </c>
+      <c r="AJ11">
+        <v>0.82811999999999997</v>
+      </c>
+      <c r="AK11">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="AL11">
+        <v>0.84136</v>
+      </c>
+      <c r="AM11">
+        <v>0.84084999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.82147999999999999</v>
+      </c>
+      <c r="AO11">
+        <v>0.83262000000000003</v>
+      </c>
+      <c r="AP11">
+        <v>0.83431999999999995</v>
+      </c>
+      <c r="AQ11">
+        <v>0.83045000000000002</v>
+      </c>
+      <c r="AR11">
+        <v>0.86307</v>
+      </c>
+      <c r="AS11">
+        <v>0.82223999999999997</v>
+      </c>
+      <c r="AT11">
+        <v>0.84738999999999998</v>
+      </c>
+      <c r="AU11">
+        <v>0.87892000000000003</v>
+      </c>
+      <c r="AV11">
+        <v>0.87207999999999997</v>
+      </c>
+      <c r="AW11">
+        <v>0.85597000000000001</v>
+      </c>
+      <c r="AX11">
+        <v>0.83282</v>
+      </c>
+      <c r="AY11">
+        <v>0.83992999999999995</v>
+      </c>
+      <c r="AZ11">
+        <v>0.87699000000000005</v>
+      </c>
+      <c r="BA11">
+        <v>0.83450999999999997</v>
+      </c>
+      <c r="BB11">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="BC11">
+        <v>0.84150999999999998</v>
+      </c>
+      <c r="BD11">
+        <v>0.83245000000000002</v>
+      </c>
+      <c r="BE11">
+        <v>0.85480999999999996</v>
+      </c>
+      <c r="BF11">
+        <v>0.85097</v>
+      </c>
+      <c r="BG11">
+        <v>0.85018000000000005</v>
+      </c>
+      <c r="BH11">
+        <v>0.83658999999999994</v>
+      </c>
+      <c r="BI11">
+        <v>0.84646999999999994</v>
+      </c>
+      <c r="BJ11">
+        <v>0.85296000000000005</v>
+      </c>
+      <c r="BK11">
+        <v>0.83882999999999996</v>
+      </c>
+      <c r="BL11">
+        <v>0.86170999999999998</v>
+      </c>
+      <c r="BM11">
+        <v>0.85097999999999996</v>
+      </c>
+      <c r="BN11">
+        <v>0.83967999999999998</v>
+      </c>
+      <c r="BO11">
+        <v>0.84831999999999996</v>
+      </c>
+      <c r="BP11">
+        <v>0.82035999999999998</v>
+      </c>
+      <c r="BQ11">
+        <v>0.82157999999999998</v>
+      </c>
+      <c r="BR11">
+        <v>0.84080999999999995</v>
+      </c>
+      <c r="BS11">
+        <v>0.85638999999999998</v>
+      </c>
+      <c r="BT11">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="BU11">
+        <v>0.82525999999999999</v>
+      </c>
+      <c r="BV11">
+        <v>0.87043000000000004</v>
+      </c>
+      <c r="BW11">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="BX11">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="BY11">
+        <v>0.85085999999999995</v>
+      </c>
+      <c r="BZ11">
+        <v>0.83557000000000003</v>
+      </c>
+      <c r="CA11">
+        <v>0.86309000000000002</v>
+      </c>
+      <c r="CB11">
+        <v>0.85358000000000001</v>
+      </c>
+      <c r="CC11">
+        <v>0.83172999999999997</v>
+      </c>
+      <c r="CD11">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="CE11">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="CF11">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="CG11">
+        <v>0.83545999999999998</v>
+      </c>
+      <c r="CH11">
+        <v>0.82552999999999999</v>
+      </c>
+      <c r="CI11">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="CJ11">
+        <v>0.84221000000000001</v>
+      </c>
+      <c r="CK11">
+        <v>0.86467000000000005</v>
+      </c>
+      <c r="CL11">
+        <v>0.86231999999999998</v>
+      </c>
+      <c r="CM11">
+        <v>0.85646</v>
+      </c>
+      <c r="CN11">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="CO11">
+        <v>0.85048000000000001</v>
+      </c>
+      <c r="CP11">
+        <v>0.84880999999999995</v>
+      </c>
+      <c r="CQ11">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="CR11">
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="CS11">
+        <v>0.85445000000000004</v>
+      </c>
+      <c r="CT11">
+        <v>0.86773</v>
+      </c>
+      <c r="CU11">
+        <v>0.84884999999999999</v>
+      </c>
+      <c r="CV11">
+        <v>0.87394000000000005</v>
+      </c>
+      <c r="CW11">
+        <v>0.84594079999999972</v>
       </c>
     </row>
   </sheetData>
